--- a/ControlTask2_MQA_Ivan_Savenko/BugReport.xlsx
+++ b/ControlTask2_MQA_Ivan_Savenko/BugReport.xlsx
@@ -84,9 +84,6 @@
     <t>Кнопка "Регионы" расположена в один ряд с остальными элементами.</t>
   </si>
   <si>
-    <t>Дублирование функционала ссылок "Реклама на основе интересов" и "Файлы cookie"</t>
-  </si>
-  <si>
     <t>Ссылка "Реклама на основе интересов" ведет на страницу с тем же содержимым, что и страница относящаяся к ссылке "Файлы cookie"</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Неверное визуальное оформление кнопки "Регионы".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дублирование функционала ссылок "Реклама на основе интересов" и "Файлы cookie" </t>
   </si>
 </sst>
 </file>
@@ -414,6 +414,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -608,7 +676,7 @@
   <a:themeElements>
     <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="171717"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -953,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
@@ -1007,25 +1075,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>10</v>
@@ -1043,19 +1111,19 @@
         <v>11</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>28</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>18</v>
